--- a/2 Семестр/2.2.1/computations.xlsx
+++ b/2 Семестр/2.2.1/computations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C6AB9-7B00-4041-BEDB-4A248350B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8512867-E341-4DCE-B1A1-E5C20CD80061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,8 +713,8 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <f>0.25*B14</f>
-        <v>183.9</v>
+        <f>0.25*B14/100</f>
+        <v>1.839</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -748,23 +748,23 @@
       </c>
       <c r="B19">
         <f>B18*$B$16/B15</f>
-        <v>0.12330471430914218</v>
+        <v>1.2330471430914217E-3</v>
       </c>
       <c r="E19">
         <f>E18*$B$16/E15</f>
-        <v>6.0419310011479661E-2</v>
+        <v>6.0419310011479671E-4</v>
       </c>
       <c r="H19">
         <f>H18*$B$16/H15</f>
-        <v>2.1750951604132679E-2</v>
+        <v>2.1750951604132676E-4</v>
       </c>
       <c r="K19">
         <f>K18*$B$16/K15</f>
-        <v>9.6670896018367456E-3</v>
+        <v>9.6670896018367461E-5</v>
       </c>
       <c r="N19">
         <f>N18*$B$16/N15</f>
-        <v>3.4801522566612285E-3</v>
+        <v>3.4801522566612284E-5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
